--- a/downloaded_files/EECS304_Tutorial-35311.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35311.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد هشام ابراهيم حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed hesham ibrahim hassanain</x:t>
   </x:si>
   <x:si>
     <x:t>1230116</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.9617385069</x:v>
+        <x:v>45919.8800509259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45912.9617385069</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4218207523</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45907.4218207523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.424537037</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45909.424537037</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6668611111</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45906.6668611111</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4252783218</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.4252783218</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Tutorial-35311.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35311.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Samir Mohamed Younis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معاذ محمد السيد هاشم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1230266</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1570,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4218207523</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45907.4218207523</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.424537037</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45909.424537037</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6668611111</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45906.6668611111</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4252783218</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.4252783218</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20512]20512-45-الجيزة الرئيسي Time : Monday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS304_Tutorial-35311.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35311.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد عبدالرؤف حسن ابوالحديد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad abdelraouf hassan aboelhaded</x:t>
   </x:si>
   <x:si>
     <x:t>1210238</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1131,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45906.6648877315</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45906.6646827199</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646827199</x:v>
+        <x:v>45907.4199719097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199719097</x:v>
+        <x:v>45909.7515678241</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.7515678241</x:v>
+        <x:v>45907.4441248843</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4441248843</x:v>
+        <x:v>45906.6657920949</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45907.4200462963</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4200462963</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45913.0244904745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.0244904745</x:v>
+        <x:v>45912.9879304051</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.9879304051</x:v>
+        <x:v>45927.5946633449</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.9797975347</x:v>
+        <x:v>45919.8800509259</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45919.8800509259</x:v>
+        <x:v>45912.9617385069</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.9617385069</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45907.4218207523</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4218207523</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45909.424537037</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.424537037</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45906.6668611111</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6668611111</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.4252783218</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.4252783218</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Control-1 (EECS304) Location : [20512]20512-45-الجيزة الرئيسي Time : Monday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EECS304_Tutorial-35311.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35311.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,15 +247,6 @@
   </x:si>
   <x:si>
     <x:t>Mennatullah Mohammad Mahmoud Abolfotoh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند محمد فتحى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
   </x:si>
   <x:si>
     <x:t>4220145</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1442,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.5946633449</x:v>
+        <x:v>45927.7627194792</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4218207523</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45909.424537037</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.424537037</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1721,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45906.6668611111</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1753,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6668611111</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45907.4252783218</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.4252783218</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Tutorial-35311.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35311.xlsx
@@ -60,6 +60,15 @@
     <x:t>Adham Moatasem Bellah Mahmoud Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1230018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسامه سعيد النجار توفيق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>osama said elnaggar</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220165</x:t>
   </x:si>
   <x:si>
@@ -247,15 +256,6 @@
   </x:si>
   <x:si>
     <x:t>Mennatullah Mohammad Mahmoud Abolfotoh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين حسن حامد محمد خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1230273</x:t>
@@ -921,7 +921,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4231863773</x:v>
+        <x:v>45928.5375614236</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -953,7 +953,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.9963226505</x:v>
+        <x:v>45909.4231863773</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -985,7 +985,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.9710499653</x:v>
+        <x:v>45912.9963226505</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +1017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4897961806</x:v>
+        <x:v>45912.9710499653</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1049,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.9921939815</x:v>
+        <x:v>45907.4897961806</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1081,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.0385996181</x:v>
+        <x:v>45912.9921939815</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45913.0385996181</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646827199</x:v>
+        <x:v>45906.6648877315</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4199719097</x:v>
+        <x:v>45906.6646827199</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.7515678241</x:v>
+        <x:v>45907.4199719097</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4441248843</x:v>
+        <x:v>45909.7515678241</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45907.4441248843</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4200462963</x:v>
+        <x:v>45906.6657920949</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1337,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45907.4200462963</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1369,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.0244904745</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1401,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.9879304051</x:v>
+        <x:v>45913.0244904745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1433,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.7627194792</x:v>
+        <x:v>45912.9879304051</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1465,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45919.8800509259</x:v>
+        <x:v>45927.7627194792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1497,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.9617385069</x:v>
+        <x:v>45919.8800509259</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1529,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45912.9617385069</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1561,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1593,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>

--- a/downloaded_files/EECS304_Tutorial-35311.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35311.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohammed Ahmed Abd al-Jaleel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد يحى سعد السيد نافع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Yehya Saad Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230015</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -889,7 +898,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4409110301</x:v>
+        <x:v>45934.8620416667</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -921,7 +930,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.5375614236</x:v>
+        <x:v>45907.4409110301</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -953,7 +962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4231863773</x:v>
+        <x:v>45928.5375614236</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -985,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.9963226505</x:v>
+        <x:v>45909.4231863773</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.9710499653</x:v>
+        <x:v>45912.9963226505</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4897961806</x:v>
+        <x:v>45912.9710499653</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.9921939815</x:v>
+        <x:v>45907.4897961806</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45913.0385996181</x:v>
+        <x:v>45912.9921939815</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45913.0385996181</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646827199</x:v>
+        <x:v>45906.6648877315</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199719097</x:v>
+        <x:v>45906.6646827199</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.7515678241</x:v>
+        <x:v>45907.4199719097</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4441248843</x:v>
+        <x:v>45909.7515678241</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45907.4441248843</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4200462963</x:v>
+        <x:v>45906.6657920949</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6659746528</x:v>
+        <x:v>45907.4200462963</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.0244904745</x:v>
+        <x:v>45906.6659746528</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.9879304051</x:v>
+        <x:v>45913.0244904745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.7627194792</x:v>
+        <x:v>45912.9879304051</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45919.8800509259</x:v>
+        <x:v>45927.7627194792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.9617385069</x:v>
+        <x:v>45919.8800509259</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45912.9617385069</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4190850347</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.424537037</x:v>
+        <x:v>45907.4190850347</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4144861458</x:v>
+        <x:v>45909.424537037</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45907.4144861458</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6668611111</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45906.6668611111</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.414405706</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4252783218</x:v>
+        <x:v>45907.414405706</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.4252783218</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Tutorial-35311.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35311.xlsx
@@ -57,7 +57,7 @@
     <x:t>احمد يحى سعد السيد نافع</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Yehya Saad Nafea</x:t>
+    <x:t>Ahmed Yehya Saad Elsayed Nafea</x:t>
   </x:si>
   <x:si>
     <x:t>1230015</x:t>

--- a/downloaded_files/EECS304_Tutorial-35311.xlsx
+++ b/downloaded_files/EECS304_Tutorial-35311.xlsx
@@ -129,7 +129,7 @@
     <x:t>رنا احمد محمد سمير محمد فهمى الغرباوى</x:t>
   </x:si>
   <x:si>
-    <x:t>Rana ahmed mohamed samir mohamed fahmy elgharabawy</x:t>
+    <x:t>RANA AHMED MOHAMED SAMIR MOHAMED FAHMY EIGHARABAWY</x:t>
   </x:si>
   <x:si>
     <x:t>1210238</x:t>
@@ -156,7 +156,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230205</x:t>
@@ -192,7 +192,7 @@
     <x:t>فرح مدحت محمد حسن شرشر</x:t>
   </x:si>
   <x:si>
-    <x:t>Farah medhat mohamed hassan sharshar</x:t>
+    <x:t>Farah Medhat Mohamed Hassan Sharshar</x:t>
   </x:si>
   <x:si>
     <x:t>1220191</x:t>
@@ -210,7 +210,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230094</x:t>
@@ -228,7 +228,7 @@
     <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
+    <x:t xml:space="preserve"> Mohammad Amr Mohammad Ezzat Safwat  Aboelattaa</x:t>
   </x:si>
   <x:si>
     <x:t>1220278</x:t>
@@ -309,7 +309,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1230134</x:t>
@@ -752,7 +752,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.510625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="53.220625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="60.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
